--- a/biology/Neurosciences/Leucodystrophie_métachromatique/Leucodystrophie_métachromatique.xlsx
+++ b/biology/Neurosciences/Leucodystrophie_métachromatique/Leucodystrophie_métachromatique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Leucodystrophie_m%C3%A9tachromatique</t>
+          <t>Leucodystrophie_métachromatique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La leucodystrophie métachromatique est la plus fréquente des  leucodystrophies causée par la mutation du gène codant l'arylsulfatase A entraînant une incapacité à cataboliser le cérébroside sulfate. Le cérébroside sulfate est présent dans tout l'organisme mais surtout au niveau du système nerveux central, des reins et des gonades. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Leucodystrophie_m%C3%A9tachromatique</t>
+          <t>Leucodystrophie_métachromatique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Formes cliniques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Trois sous types de leucodystrophie métachromatique existent : La forme infantile tardive 60 %, la forme juvénile 20 à 30 % et la forme adulte 10 à 20 %. L'âge de survenue de la maladie est habituellement le même dans une famille atteinte. Toutes les formes de cette maladie s'accompagnent de troubles neurologiques sévères et de pertes des fonctions intellectuelles. La durée de la maladie est entre 3 et 10 ans dans la forme infantile tardive et parfois plus de 20 ans dans les autres formes. Le décès est habituellement dû à des infections le plus souvent pulmonaires.
 La forme infantile tardive débute entre un an ou deux de vie. Les signes les plus typiques sont des chutes fréquentes, l'apparition d'une maladresse dans les gestes, une déambulation sur les orteils et une désorganisation du langage. Les premiers signes sont neurologiques avec hypotonie et faiblesse musculaire. Les signes les plus tardifs sont une impossibilité de se tenir debout, des troubles de la parole, une dégradation des fonctions intellectuelles une hypertonie musculaire, des douleurs des bras et des jambes, des crises d'épilepsies focales ou généralisées, des troubles de la vue et une diminution de l'audition. Au stade terminal de la maladie, l'enfant est grabataire, présente une hypertonie généralisée, il est aveugle et nourri par sonde gastrique. En l'absence de traitement la durée de vie est de  trois ans mais peut aller jusqu'à dix ans avec une prise en charge agressive.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Leucodystrophie_m%C3%A9tachromatique</t>
+          <t>Leucodystrophie_métachromatique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La leucodystrophie métachromatique est suspectée chez des individus présentant des signes de détériorations neurologiques avec des signes de leucodystrophie à l'imagerie par résonance magnétique. Le dosage de l'activité enzymatique de l'arylsulfatase A dans les leucocytes inférieure à 10 % oriente vers l'origine de la leucodystrophie. L'existence de pseudo déficit d'arylsulfatase A avec une activité enzymatique comprise entre 5 % et 20 % rend indispensable la pratique d'examens complémentaires comme: recherche de la mutation causale, dosage des sulfatides urinaires ou preuve histologique de dépôt de lipide métachromatique dans le tissu nerveux.
 </t>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Leucodystrophie_m%C3%A9tachromatique</t>
+          <t>Leucodystrophie_métachromatique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Prise en charge</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la forme infantile tardive, les enfants gardent leur conscience lorsqu'ils ont perdu toute motricité, la parole et même la vue. Il faut que l'entourage leur parle et que les médecins soient conscients que ces patients les comprennent.
 Dans les formes juvéniles et adultes, s'ils ne sont pas stimulés, les enfants sombrent dans un état de prostration. Une prise en charge complète : orthophonie, kinésithérapie, psychomotricité, ergothérapie, intégration scolaire, permet de communiquer longtemps avec l'enfant.
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Leucodystrophie_m%C3%A9tachromatique</t>
+          <t>Leucodystrophie_métachromatique</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,9 +628,11 @@
           <t>Récits sur cette maladie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Anne-Dauphine Julliand, Deux petits pas sur le sable mouillé, 2011[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Anne-Dauphine Julliand, Deux petits pas sur le sable mouillé, 2011.
 Anne-Dauphine Julliand, Une journée particulière, 2013.</t>
         </is>
       </c>
@@ -623,7 +643,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Leucodystrophie_m%C3%A9tachromatique</t>
+          <t>Leucodystrophie_métachromatique</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -641,10 +661,12 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(en) Arvan L Fluharty, Arylsulfatase A Deficiency In GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2006 [1]
-(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:250100 [2]
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(en) Arvan L Fluharty, Arylsulfatase A Deficiency In GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2006 
+(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:250100 
 (fr) Leucodystrophie métachromatique sur Orphanet
 ↑ Anne-Dauphine Julliand la leçon de vie d'une mère Courage sur lejdd.fr
 </t>
